--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="227">
   <si>
     <t>FirstName</t>
   </si>
@@ -706,6 +706,15 @@
   </si>
   <si>
     <t>4568939</t>
+  </si>
+  <si>
+    <t>4568957</t>
+  </si>
+  <si>
+    <t>4568958</t>
+  </si>
+  <si>
+    <t>4568959</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1149,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId6"/>
-    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId12"/>
+    <hyperlink ref="C3" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1176,7 +1185,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1304,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1522,7 +1531,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>196</v>
@@ -1680,7 +1689,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3657,28 +3666,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId45"/>
-    <hyperlink ref="C2" r:id="rId46"/>
-    <hyperlink ref="C3" r:id="rId47"/>
-    <hyperlink ref="C4" r:id="rId48"/>
-    <hyperlink ref="C5" r:id="rId49"/>
-    <hyperlink ref="C6" r:id="rId50"/>
-    <hyperlink ref="C7" r:id="rId51"/>
-    <hyperlink ref="C8" r:id="rId52"/>
-    <hyperlink ref="C9" r:id="rId53"/>
-    <hyperlink ref="C10" r:id="rId54"/>
-    <hyperlink ref="C11" r:id="rId55"/>
-    <hyperlink ref="C12" r:id="rId56"/>
-    <hyperlink ref="C13" r:id="rId57"/>
-    <hyperlink ref="C14" r:id="rId58"/>
-    <hyperlink ref="C15" r:id="rId59"/>
-    <hyperlink ref="C16" r:id="rId60"/>
-    <hyperlink ref="C17" r:id="rId61"/>
-    <hyperlink ref="C18" r:id="rId62"/>
-    <hyperlink ref="C19" r:id="rId63"/>
-    <hyperlink ref="C20" r:id="rId64"/>
-    <hyperlink ref="C21" r:id="rId65"/>
-    <hyperlink ref="C22" r:id="rId66"/>
+    <hyperlink ref="C1" r:id="rId111"/>
+    <hyperlink ref="C2" r:id="rId112"/>
+    <hyperlink ref="C3" r:id="rId113"/>
+    <hyperlink ref="C4" r:id="rId114"/>
+    <hyperlink ref="C5" r:id="rId115"/>
+    <hyperlink ref="C6" r:id="rId116"/>
+    <hyperlink ref="C7" r:id="rId117"/>
+    <hyperlink ref="C8" r:id="rId118"/>
+    <hyperlink ref="C9" r:id="rId119"/>
+    <hyperlink ref="C10" r:id="rId120"/>
+    <hyperlink ref="C11" r:id="rId121"/>
+    <hyperlink ref="C12" r:id="rId122"/>
+    <hyperlink ref="C13" r:id="rId123"/>
+    <hyperlink ref="C14" r:id="rId124"/>
+    <hyperlink ref="C15" r:id="rId125"/>
+    <hyperlink ref="C16" r:id="rId126"/>
+    <hyperlink ref="C17" r:id="rId127"/>
+    <hyperlink ref="C18" r:id="rId128"/>
+    <hyperlink ref="C19" r:id="rId129"/>
+    <hyperlink ref="C20" r:id="rId130"/>
+    <hyperlink ref="C21" r:id="rId131"/>
+    <hyperlink ref="C22" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csaenz\eclipse-workspace\Automation_Framework\src\test\resources\excel\"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="221">
   <si>
     <t>FirstName</t>
   </si>
@@ -624,15 +624,9 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Jerry</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>871</t>
-  </si>
-  <si>
     <t>Cadillac</t>
   </si>
   <si>
@@ -648,15 +642,6 @@
     <t>8185551231</t>
   </si>
   <si>
-    <t>59 Center Dr</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>32835</t>
-  </si>
-  <si>
     <t>Own</t>
   </si>
   <si>
@@ -696,33 +681,29 @@
     <t>8</t>
   </si>
   <si>
-    <t>4568937</t>
-  </si>
-  <si>
-    <t>666106794</t>
-  </si>
-  <si>
-    <t>4568938</t>
-  </si>
-  <si>
-    <t>4568939</t>
-  </si>
-  <si>
-    <t>4568957</t>
-  </si>
-  <si>
-    <t>4568958</t>
-  </si>
-  <si>
-    <t>4568959</t>
+    <t>4643309</t>
+  </si>
+  <si>
+    <t>Choate</t>
+  </si>
+  <si>
+    <t>666222165</t>
+  </si>
+  <si>
+    <t>12264 NW 73RD</t>
+  </si>
+  <si>
+    <t>Parkland</t>
+  </si>
+  <si>
+    <t>33076</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,12 +1060,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,8 +1130,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId12"/>
-    <hyperlink ref="C3" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1167,9 +1148,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1166,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1204,8 +1185,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1240,14 +1221,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.7109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,7 +1285,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1315,65 +1296,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="10" max="12" style="3" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="10.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="30" max="30" style="3" width="9.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="32" max="32" style="3" width="9.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
-    <col min="34" max="36" style="3" width="9.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="25.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="3" width="37.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="53" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="9.140625" style="3" collapsed="1"/>
+    <col min="13" max="13" width="23.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.140625" style="3" collapsed="1"/>
+    <col min="31" max="31" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.140625" style="3" collapsed="1"/>
+    <col min="33" max="33" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="36" width="9.140625" style="3" collapsed="1"/>
+    <col min="37" max="37" width="30.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="37" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="37.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="37.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="21.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="16.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="18.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1496,7 +1477,7 @@
         <v>75</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AQ1" s="3" t="s">
         <v>76</v>
@@ -1531,13 +1512,13 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>40</v>
@@ -1555,43 +1536,43 @@
         <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>113</v>
@@ -1603,19 +1584,19 @@
         <v>24</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>6</v>
@@ -1624,7 +1605,7 @@
         <v>70</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>48</v>
@@ -1639,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>6</v>
@@ -1660,22 +1641,22 @@
         <v>6</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AX2" s="3" t="s">
         <v>106</v>
@@ -1689,7 +1670,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3666,28 +3647,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId111"/>
-    <hyperlink ref="C2" r:id="rId112"/>
-    <hyperlink ref="C3" r:id="rId113"/>
-    <hyperlink ref="C4" r:id="rId114"/>
-    <hyperlink ref="C5" r:id="rId115"/>
-    <hyperlink ref="C6" r:id="rId116"/>
-    <hyperlink ref="C7" r:id="rId117"/>
-    <hyperlink ref="C8" r:id="rId118"/>
-    <hyperlink ref="C9" r:id="rId119"/>
-    <hyperlink ref="C10" r:id="rId120"/>
-    <hyperlink ref="C11" r:id="rId121"/>
-    <hyperlink ref="C12" r:id="rId122"/>
-    <hyperlink ref="C13" r:id="rId123"/>
-    <hyperlink ref="C14" r:id="rId124"/>
-    <hyperlink ref="C15" r:id="rId125"/>
-    <hyperlink ref="C16" r:id="rId126"/>
-    <hyperlink ref="C17" r:id="rId127"/>
-    <hyperlink ref="C18" r:id="rId128"/>
-    <hyperlink ref="C19" r:id="rId129"/>
-    <hyperlink ref="C20" r:id="rId130"/>
-    <hyperlink ref="C21" r:id="rId131"/>
-    <hyperlink ref="C22" r:id="rId132"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C15" r:id="rId15"/>
+    <hyperlink ref="C16" r:id="rId16"/>
+    <hyperlink ref="C17" r:id="rId17"/>
+    <hyperlink ref="C18" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="C20" r:id="rId20"/>
+    <hyperlink ref="C21" r:id="rId21"/>
+    <hyperlink ref="C22" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3703,15 +3684,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.28515625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3782,14 +3763,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3859,17 +3840,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="2" max="4" style="3" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="14" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3975,20 +3956,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4094,20 +4075,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,30 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csaenz\eclipse-workspace\Automation_Framework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loanmart.com\fs\Dept\Tech\QA\Automation\LM Test Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="3855" tabRatio="922" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="3855" tabRatio="922" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="inputContactInformationCCB" sheetId="10" r:id="rId1"/>
     <sheet name="inputContactInformationAEL" sheetId="5" r:id="rId2"/>
     <sheet name="ApplicationSubmissionCCB" sheetId="17" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId4"/>
-    <sheet name="inputVehicleInformationAEL" sheetId="6" r:id="rId5"/>
-    <sheet name="inputVehicleInformationCCB" sheetId="15" r:id="rId6"/>
-    <sheet name="inputAddressInformationAEL" sheetId="8" r:id="rId7"/>
-    <sheet name="inputAddressInformationCCB" sheetId="16" r:id="rId8"/>
-    <sheet name="inputAddressInformationLOS" sheetId="12" r:id="rId9"/>
-    <sheet name="loanNumber" sheetId="9" r:id="rId10"/>
-    <sheet name="Test" sheetId="7" r:id="rId11"/>
+    <sheet name="ApplicationSubmissionAEL" sheetId="19" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId5"/>
+    <sheet name="inputVehicleInformationAEL" sheetId="6" r:id="rId6"/>
+    <sheet name="inputVehicleInformationCCB" sheetId="15" r:id="rId7"/>
+    <sheet name="inputVehicleInformationLOS" sheetId="11" r:id="rId8"/>
+    <sheet name="inputAddressInformationAEL" sheetId="8" r:id="rId9"/>
+    <sheet name="inputAddressInformationCCB" sheetId="16" r:id="rId10"/>
+    <sheet name="inputAdditionalInfoLOS" sheetId="14" r:id="rId11"/>
+    <sheet name="inputIncomeInformationLOS" sheetId="13" r:id="rId12"/>
+    <sheet name="inputAddressInformationLOS" sheetId="12" r:id="rId13"/>
+    <sheet name="loanNumber" sheetId="9" r:id="rId14"/>
+    <sheet name="Test" sheetId="7" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="259">
   <si>
     <t>FirstName</t>
   </si>
@@ -162,6 +166,24 @@
     <t>California</t>
   </si>
   <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
     <t>LicensePlate</t>
   </si>
   <si>
@@ -180,6 +202,9 @@
     <t>Running</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -213,12 +238,63 @@
     <t>ReasonForLoan</t>
   </si>
   <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>Renting</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Alimony</t>
+  </si>
+  <si>
+    <t>ChildSupport</t>
+  </si>
+  <si>
     <t>DriverLicenseNumber</t>
   </si>
   <si>
     <t>DriverLicenseState</t>
   </si>
   <si>
+    <t>EmployerPhone</t>
+  </si>
+  <si>
+    <t>EmployerPhoneExtension</t>
+  </si>
+  <si>
+    <t>EmployerAddress</t>
+  </si>
+  <si>
+    <t>EmployerCity</t>
+  </si>
+  <si>
+    <t>EmployerState</t>
+  </si>
+  <si>
+    <t>EmployerZip</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>8188888888</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>666666666</t>
   </si>
   <si>
@@ -246,6 +322,9 @@
     <t>AELLoanNumber</t>
   </si>
   <si>
+    <t>WAUDGAFL1EA123034</t>
+  </si>
+  <si>
     <t>ABC1234</t>
   </si>
   <si>
@@ -264,6 +343,9 @@
     <t>WillYouBeAbleToDriveYourCar</t>
   </si>
   <si>
+    <t>AreYouAbleToProvideProof</t>
+  </si>
+  <si>
     <t>DoYouHaveAnotherCar</t>
   </si>
   <si>
@@ -309,6 +391,9 @@
     <t>DoYouDriveThisCarToWork</t>
   </si>
   <si>
+    <t>4088551</t>
+  </si>
+  <si>
     <t>Milestone</t>
   </si>
   <si>
@@ -354,6 +439,12 @@
     <t>11/12/1978</t>
   </si>
   <si>
+    <t>Retired / Benefits</t>
+  </si>
+  <si>
+    <t>SSI / Benefits</t>
+  </si>
+  <si>
     <t>Pleasure</t>
   </si>
   <si>
@@ -660,15 +751,18 @@
     <t>LoanNumber</t>
   </si>
   <si>
+    <t>AreYouAbleToProvideProofBankAccount</t>
+  </si>
+  <si>
+    <t>4568939</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>AreYouAbleToProvideProofBankAccount</t>
-  </si>
-  <si>
     <t>Employed</t>
   </si>
   <si>
@@ -681,29 +775,54 @@
     <t>8</t>
   </si>
   <si>
-    <t>4643309</t>
-  </si>
-  <si>
     <t>Choate</t>
   </si>
   <si>
+    <t>12264 NW 73RD</t>
+  </si>
+  <si>
+    <t>Parkland</t>
+  </si>
+  <si>
+    <t>33076</t>
+  </si>
+  <si>
     <t>666222165</t>
   </si>
   <si>
-    <t>12264 NW 73RD</t>
-  </si>
-  <si>
-    <t>Parkland</t>
-  </si>
-  <si>
-    <t>33076</t>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Alderson</t>
+  </si>
+  <si>
+    <t>random@email.com</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>4643370</t>
+  </si>
+  <si>
+    <t>4643374</t>
+  </si>
+  <si>
+    <t>4643375</t>
+  </si>
+  <si>
+    <t>4643376</t>
+  </si>
+  <si>
+    <t>4643377</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +857,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -760,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -770,6 +895,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,12 +1186,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.7109375" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,18 +1231,18 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -1125,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId12"/>
+    <hyperlink ref="C3" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1139,6 +1265,413 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.0" collapsed="true"/>
+    <col min="3" max="5" style="3" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="24.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="12.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="14.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1148,25 +1681,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1185,18 +1718,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
@@ -1221,14 +1754,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,18 +1787,18 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>41</v>
@@ -1280,12 +1813,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1296,65 +1829,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="23.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.140625" style="3" collapsed="1"/>
-    <col min="31" max="31" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.140625" style="3" collapsed="1"/>
-    <col min="33" max="33" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="36" width="9.140625" style="3" collapsed="1"/>
-    <col min="37" max="37" width="30.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="37" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="37.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="37.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="21.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="10" max="12" style="3" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="10.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="30" max="30" style="3" width="9.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="32" max="35" style="3" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="25.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="3" width="37.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="53" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1378,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
@@ -1402,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>28</v>
@@ -1435,90 +1967,90 @@
         <v>37</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>40</v>
@@ -1536,25 +2068,25 @@
         <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>6</v>
@@ -1563,52 +2095,52 @@
         <v>6</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>6</v>
@@ -1620,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>6</v>
@@ -1629,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>6</v>
@@ -1641,28 +2173,28 @@
         <v>6</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>38</v>
@@ -1670,7 +2202,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1679,23 +2211,364 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="9" max="30" style="3" width="9.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="32" max="36" style="3" width="9.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="25.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="3" width="37.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="3" width="14.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="53" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC3"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>41</v>
@@ -1710,25 +2583,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>6</v>
@@ -1737,25 +2610,25 @@
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>25</v>
@@ -1764,13 +2637,13 @@
         <v>17</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>6</v>
@@ -1778,47 +2651,47 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="L2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1826,25 +2699,25 @@
         <v>6</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>25</v>
@@ -1853,13 +2726,13 @@
         <v>17</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>6</v>
@@ -1867,73 +2740,73 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>25</v>
@@ -1942,13 +2815,13 @@
         <v>17</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>6</v>
@@ -1956,16 +2829,16 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1977,26 +2850,26 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2004,25 +2877,25 @@
         <v>6</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>25</v>
@@ -2031,13 +2904,13 @@
         <v>17</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>6</v>
@@ -2045,16 +2918,16 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2066,25 +2939,25 @@
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>6</v>
@@ -2093,25 +2966,25 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>25</v>
@@ -2120,13 +2993,13 @@
         <v>17</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>6</v>
@@ -2134,16 +3007,16 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2155,25 +3028,25 @@
         <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>6</v>
@@ -2182,25 +3055,25 @@
         <v>6</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>25</v>
@@ -2209,13 +3082,13 @@
         <v>17</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>6</v>
@@ -2223,16 +3096,16 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2244,25 +3117,25 @@
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>6</v>
@@ -2271,25 +3144,25 @@
         <v>6</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>25</v>
@@ -2298,13 +3171,13 @@
         <v>17</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>6</v>
@@ -2312,16 +3185,16 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2333,25 +3206,25 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>6</v>
@@ -2360,25 +3233,25 @@
         <v>6</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>25</v>
@@ -2387,13 +3260,13 @@
         <v>17</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>6</v>
@@ -2401,46 +3274,46 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>6</v>
@@ -2449,25 +3322,25 @@
         <v>6</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>25</v>
@@ -2476,13 +3349,13 @@
         <v>17</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>6</v>
@@ -2490,16 +3363,16 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2511,25 +3384,25 @@
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>6</v>
@@ -2538,25 +3411,25 @@
         <v>6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>25</v>
@@ -2565,13 +3438,13 @@
         <v>17</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>6</v>
@@ -2579,16 +3452,16 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2600,25 +3473,25 @@
         <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>6</v>
@@ -2627,25 +3500,25 @@
         <v>6</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>25</v>
@@ -2654,13 +3527,13 @@
         <v>17</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>6</v>
@@ -2668,16 +3541,16 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2689,25 +3562,25 @@
         <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>6</v>
@@ -2716,25 +3589,25 @@
         <v>6</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>25</v>
@@ -2743,13 +3616,13 @@
         <v>17</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>6</v>
@@ -2757,46 +3630,46 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>120</v>
+      <c r="L13" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>6</v>
@@ -2805,25 +3678,25 @@
         <v>6</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>25</v>
@@ -2832,13 +3705,13 @@
         <v>17</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>6</v>
@@ -2846,16 +3719,16 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2867,25 +3740,25 @@
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>6</v>
@@ -2894,25 +3767,25 @@
         <v>6</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>25</v>
@@ -2921,13 +3794,13 @@
         <v>17</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>6</v>
@@ -2935,16 +3808,16 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2956,25 +3829,25 @@
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>6</v>
@@ -2983,25 +3856,25 @@
         <v>6</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>25</v>
@@ -3010,13 +3883,13 @@
         <v>17</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>6</v>
@@ -3024,16 +3897,16 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -3045,25 +3918,25 @@
         <v>6</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>6</v>
@@ -3072,25 +3945,25 @@
         <v>6</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>25</v>
@@ -3099,13 +3972,13 @@
         <v>17</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>6</v>
@@ -3113,16 +3986,16 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -3134,25 +4007,25 @@
         <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>6</v>
@@ -3161,25 +4034,25 @@
         <v>6</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>25</v>
@@ -3188,13 +4061,13 @@
         <v>17</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>6</v>
@@ -3202,16 +4075,16 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -3223,25 +4096,25 @@
         <v>6</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>6</v>
@@ -3250,25 +4123,25 @@
         <v>6</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>25</v>
@@ -3277,13 +4150,13 @@
         <v>17</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>6</v>
@@ -3291,16 +4164,16 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -3312,25 +4185,25 @@
         <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>6</v>
@@ -3339,25 +4212,25 @@
         <v>6</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>25</v>
@@ -3366,13 +4239,13 @@
         <v>17</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>6</v>
@@ -3380,16 +4253,16 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -3401,25 +4274,25 @@
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>6</v>
@@ -3428,25 +4301,25 @@
         <v>6</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>25</v>
@@ -3455,13 +4328,13 @@
         <v>17</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>6</v>
@@ -3469,16 +4342,16 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -3490,25 +4363,25 @@
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>6</v>
@@ -3517,25 +4390,25 @@
         <v>6</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>25</v>
@@ -3544,13 +4417,13 @@
         <v>17</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>6</v>
@@ -3558,16 +4431,16 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -3579,25 +4452,25 @@
         <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>6</v>
@@ -3606,25 +4479,25 @@
         <v>6</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>25</v>
@@ -3633,13 +4506,13 @@
         <v>17</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>6</v>
@@ -3647,34 +4520,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C9" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
-    <hyperlink ref="C11" r:id="rId11"/>
-    <hyperlink ref="C12" r:id="rId12"/>
-    <hyperlink ref="C13" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C15" r:id="rId15"/>
-    <hyperlink ref="C16" r:id="rId16"/>
-    <hyperlink ref="C17" r:id="rId17"/>
-    <hyperlink ref="C18" r:id="rId18"/>
-    <hyperlink ref="C19" r:id="rId19"/>
-    <hyperlink ref="C20" r:id="rId20"/>
-    <hyperlink ref="C21" r:id="rId21"/>
-    <hyperlink ref="C22" r:id="rId22"/>
+    <hyperlink ref="C1" r:id="rId111"/>
+    <hyperlink ref="C2" r:id="rId112"/>
+    <hyperlink ref="C3" r:id="rId113"/>
+    <hyperlink ref="C4" r:id="rId114"/>
+    <hyperlink ref="C5" r:id="rId115"/>
+    <hyperlink ref="C6" r:id="rId116"/>
+    <hyperlink ref="C7" r:id="rId117"/>
+    <hyperlink ref="C8" r:id="rId118"/>
+    <hyperlink ref="C9" r:id="rId119"/>
+    <hyperlink ref="C10" r:id="rId120"/>
+    <hyperlink ref="C11" r:id="rId121"/>
+    <hyperlink ref="C12" r:id="rId122"/>
+    <hyperlink ref="C13" r:id="rId123"/>
+    <hyperlink ref="C14" r:id="rId124"/>
+    <hyperlink ref="C15" r:id="rId125"/>
+    <hyperlink ref="C16" r:id="rId126"/>
+    <hyperlink ref="C17" r:id="rId127"/>
+    <hyperlink ref="C18" r:id="rId128"/>
+    <hyperlink ref="C19" r:id="rId129"/>
+    <hyperlink ref="C20" r:id="rId130"/>
+    <hyperlink ref="C21" r:id="rId131"/>
+    <hyperlink ref="C22" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3684,15 +4557,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.28515625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="3" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3718,27 +4591,27 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -3753,7 +4626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3763,14 +4636,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3796,24 +4669,24 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -3822,122 +4695,6 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="9.140625" style="3" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3948,220 +4705,268 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="5.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="5.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="31.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="7.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="39.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="19" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="2" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="14" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="269">
   <si>
     <t>FirstName</t>
   </si>
@@ -815,6 +815,36 @@
   </si>
   <si>
     <t>4643377</t>
+  </si>
+  <si>
+    <t>4643392</t>
+  </si>
+  <si>
+    <t>4643393</t>
+  </si>
+  <si>
+    <t>4643394</t>
+  </si>
+  <si>
+    <t>4643395</t>
+  </si>
+  <si>
+    <t>4643396</t>
+  </si>
+  <si>
+    <t>4643397</t>
+  </si>
+  <si>
+    <t>4643398</t>
+  </si>
+  <si>
+    <t>4643399</t>
+  </si>
+  <si>
+    <t>4643402</t>
+  </si>
+  <si>
+    <t>4643403</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1286,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId12"/>
-    <hyperlink ref="C3" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId32"/>
+    <hyperlink ref="C3" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1696,10 +1726,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1848,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2044,7 +2074,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>225</v>
@@ -2202,7 +2232,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2409,7 +2439,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>250</v>
@@ -2543,7 +2573,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4520,28 +4550,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId111"/>
-    <hyperlink ref="C2" r:id="rId112"/>
-    <hyperlink ref="C3" r:id="rId113"/>
-    <hyperlink ref="C4" r:id="rId114"/>
-    <hyperlink ref="C5" r:id="rId115"/>
-    <hyperlink ref="C6" r:id="rId116"/>
-    <hyperlink ref="C7" r:id="rId117"/>
-    <hyperlink ref="C8" r:id="rId118"/>
-    <hyperlink ref="C9" r:id="rId119"/>
-    <hyperlink ref="C10" r:id="rId120"/>
-    <hyperlink ref="C11" r:id="rId121"/>
-    <hyperlink ref="C12" r:id="rId122"/>
-    <hyperlink ref="C13" r:id="rId123"/>
-    <hyperlink ref="C14" r:id="rId124"/>
-    <hyperlink ref="C15" r:id="rId125"/>
-    <hyperlink ref="C16" r:id="rId126"/>
-    <hyperlink ref="C17" r:id="rId127"/>
-    <hyperlink ref="C18" r:id="rId128"/>
-    <hyperlink ref="C19" r:id="rId129"/>
-    <hyperlink ref="C20" r:id="rId130"/>
-    <hyperlink ref="C21" r:id="rId131"/>
-    <hyperlink ref="C22" r:id="rId132"/>
+    <hyperlink ref="C1" r:id="rId331"/>
+    <hyperlink ref="C2" r:id="rId332"/>
+    <hyperlink ref="C3" r:id="rId333"/>
+    <hyperlink ref="C4" r:id="rId334"/>
+    <hyperlink ref="C5" r:id="rId335"/>
+    <hyperlink ref="C6" r:id="rId336"/>
+    <hyperlink ref="C7" r:id="rId337"/>
+    <hyperlink ref="C8" r:id="rId338"/>
+    <hyperlink ref="C9" r:id="rId339"/>
+    <hyperlink ref="C10" r:id="rId340"/>
+    <hyperlink ref="C11" r:id="rId341"/>
+    <hyperlink ref="C12" r:id="rId342"/>
+    <hyperlink ref="C13" r:id="rId343"/>
+    <hyperlink ref="C14" r:id="rId344"/>
+    <hyperlink ref="C15" r:id="rId345"/>
+    <hyperlink ref="C16" r:id="rId346"/>
+    <hyperlink ref="C17" r:id="rId347"/>
+    <hyperlink ref="C18" r:id="rId348"/>
+    <hyperlink ref="C19" r:id="rId349"/>
+    <hyperlink ref="C20" r:id="rId350"/>
+    <hyperlink ref="C21" r:id="rId351"/>
+    <hyperlink ref="C22" r:id="rId352"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="270">
   <si>
     <t>FirstName</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>4643403</t>
+  </si>
+  <si>
+    <t>4643546</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1289,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId32"/>
-    <hyperlink ref="C3" r:id="rId33"/>
+    <hyperlink ref="C2" r:id="rId34"/>
+    <hyperlink ref="C3" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1729,7 +1732,7 @@
         <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1851,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>225</v>
@@ -2232,7 +2235,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId17"/>
+    <hyperlink ref="D2" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2573,7 +2576,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId17"/>
+    <hyperlink ref="D2" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4550,28 +4553,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId331"/>
-    <hyperlink ref="C2" r:id="rId332"/>
-    <hyperlink ref="C3" r:id="rId333"/>
-    <hyperlink ref="C4" r:id="rId334"/>
-    <hyperlink ref="C5" r:id="rId335"/>
-    <hyperlink ref="C6" r:id="rId336"/>
-    <hyperlink ref="C7" r:id="rId337"/>
-    <hyperlink ref="C8" r:id="rId338"/>
-    <hyperlink ref="C9" r:id="rId339"/>
-    <hyperlink ref="C10" r:id="rId340"/>
-    <hyperlink ref="C11" r:id="rId341"/>
-    <hyperlink ref="C12" r:id="rId342"/>
-    <hyperlink ref="C13" r:id="rId343"/>
-    <hyperlink ref="C14" r:id="rId344"/>
-    <hyperlink ref="C15" r:id="rId345"/>
-    <hyperlink ref="C16" r:id="rId346"/>
-    <hyperlink ref="C17" r:id="rId347"/>
-    <hyperlink ref="C18" r:id="rId348"/>
-    <hyperlink ref="C19" r:id="rId349"/>
-    <hyperlink ref="C20" r:id="rId350"/>
-    <hyperlink ref="C21" r:id="rId351"/>
-    <hyperlink ref="C22" r:id="rId352"/>
+    <hyperlink ref="C1" r:id="rId353"/>
+    <hyperlink ref="C2" r:id="rId354"/>
+    <hyperlink ref="C3" r:id="rId355"/>
+    <hyperlink ref="C4" r:id="rId356"/>
+    <hyperlink ref="C5" r:id="rId357"/>
+    <hyperlink ref="C6" r:id="rId358"/>
+    <hyperlink ref="C7" r:id="rId359"/>
+    <hyperlink ref="C8" r:id="rId360"/>
+    <hyperlink ref="C9" r:id="rId361"/>
+    <hyperlink ref="C10" r:id="rId362"/>
+    <hyperlink ref="C11" r:id="rId363"/>
+    <hyperlink ref="C12" r:id="rId364"/>
+    <hyperlink ref="C13" r:id="rId365"/>
+    <hyperlink ref="C14" r:id="rId366"/>
+    <hyperlink ref="C15" r:id="rId367"/>
+    <hyperlink ref="C16" r:id="rId368"/>
+    <hyperlink ref="C17" r:id="rId369"/>
+    <hyperlink ref="C18" r:id="rId370"/>
+    <hyperlink ref="C19" r:id="rId371"/>
+    <hyperlink ref="C20" r:id="rId372"/>
+    <hyperlink ref="C21" r:id="rId373"/>
+    <hyperlink ref="C22" r:id="rId374"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="272">
   <si>
     <t>FirstName</t>
   </si>
@@ -848,6 +848,12 @@
   </si>
   <si>
     <t>4643546</t>
+  </si>
+  <si>
+    <t>4643597</t>
+  </si>
+  <si>
+    <t>4643598</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1295,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId34"/>
-    <hyperlink ref="C3" r:id="rId35"/>
+    <hyperlink ref="C2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1729,10 +1735,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1857,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId18"/>
+    <hyperlink ref="C2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>225</v>
@@ -2235,7 +2241,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="D2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>250</v>
@@ -2576,7 +2582,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="D2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4553,28 +4559,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId353"/>
-    <hyperlink ref="C2" r:id="rId354"/>
-    <hyperlink ref="C3" r:id="rId355"/>
-    <hyperlink ref="C4" r:id="rId356"/>
-    <hyperlink ref="C5" r:id="rId357"/>
-    <hyperlink ref="C6" r:id="rId358"/>
-    <hyperlink ref="C7" r:id="rId359"/>
-    <hyperlink ref="C8" r:id="rId360"/>
-    <hyperlink ref="C9" r:id="rId361"/>
-    <hyperlink ref="C10" r:id="rId362"/>
-    <hyperlink ref="C11" r:id="rId363"/>
-    <hyperlink ref="C12" r:id="rId364"/>
-    <hyperlink ref="C13" r:id="rId365"/>
-    <hyperlink ref="C14" r:id="rId366"/>
-    <hyperlink ref="C15" r:id="rId367"/>
-    <hyperlink ref="C16" r:id="rId368"/>
-    <hyperlink ref="C17" r:id="rId369"/>
-    <hyperlink ref="C18" r:id="rId370"/>
-    <hyperlink ref="C19" r:id="rId371"/>
-    <hyperlink ref="C20" r:id="rId372"/>
-    <hyperlink ref="C21" r:id="rId373"/>
-    <hyperlink ref="C22" r:id="rId374"/>
+    <hyperlink ref="C1" r:id="rId397"/>
+    <hyperlink ref="C2" r:id="rId398"/>
+    <hyperlink ref="C3" r:id="rId399"/>
+    <hyperlink ref="C4" r:id="rId400"/>
+    <hyperlink ref="C5" r:id="rId401"/>
+    <hyperlink ref="C6" r:id="rId402"/>
+    <hyperlink ref="C7" r:id="rId403"/>
+    <hyperlink ref="C8" r:id="rId404"/>
+    <hyperlink ref="C9" r:id="rId405"/>
+    <hyperlink ref="C10" r:id="rId406"/>
+    <hyperlink ref="C11" r:id="rId407"/>
+    <hyperlink ref="C12" r:id="rId408"/>
+    <hyperlink ref="C13" r:id="rId409"/>
+    <hyperlink ref="C14" r:id="rId410"/>
+    <hyperlink ref="C15" r:id="rId411"/>
+    <hyperlink ref="C16" r:id="rId412"/>
+    <hyperlink ref="C17" r:id="rId413"/>
+    <hyperlink ref="C18" r:id="rId414"/>
+    <hyperlink ref="C19" r:id="rId415"/>
+    <hyperlink ref="C20" r:id="rId416"/>
+    <hyperlink ref="C21" r:id="rId417"/>
+    <hyperlink ref="C22" r:id="rId418"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
